--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0409093269696558</v>
+        <v>0.03006733333333333</v>
       </c>
       <c r="H2">
-        <v>0.0409093269696558</v>
+        <v>0.090202</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2079297388257532</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2079297388257532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N2">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q2">
-        <v>0.009157388489599204</v>
+        <v>0.008307954985555557</v>
       </c>
       <c r="R2">
-        <v>0.009157388489599204</v>
+        <v>0.07477159487</v>
       </c>
       <c r="S2">
-        <v>0.01983766693313768</v>
+        <v>0.004331399938731376</v>
       </c>
       <c r="T2">
-        <v>0.01983766693313768</v>
+        <v>0.004331399938731376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0409093269696558</v>
+        <v>0.03006733333333333</v>
       </c>
       <c r="H3">
-        <v>0.0409093269696558</v>
+        <v>0.090202</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2079297388257532</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2079297388257532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N3">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q3">
-        <v>0.0869733008635903</v>
+        <v>0.06557079042111111</v>
       </c>
       <c r="R3">
-        <v>0.0869733008635903</v>
+        <v>0.59013711379</v>
       </c>
       <c r="S3">
-        <v>0.188410415979086</v>
+        <v>0.03418570732585361</v>
       </c>
       <c r="T3">
-        <v>0.188410415979086</v>
+        <v>0.0341857073258536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.03006733333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.090202</v>
+      </c>
+      <c r="I4">
+        <v>0.2079297388257532</v>
+      </c>
+      <c r="J4">
+        <v>0.2079297388257532</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10.807288</v>
+      </c>
+      <c r="N4">
+        <v>32.421864</v>
+      </c>
+      <c r="O4">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="P4">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="Q4">
+        <v>0.3249463307253334</v>
+      </c>
+      <c r="R4">
+        <v>2.924516976528</v>
+      </c>
+      <c r="S4">
+        <v>0.1694126315611683</v>
+      </c>
+      <c r="T4">
+        <v>0.1694126315611682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.05065133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.151954</v>
+      </c>
+      <c r="I5">
+        <v>0.350277771374565</v>
+      </c>
+      <c r="J5">
+        <v>0.3502777713745649</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2763116666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.828935</v>
+      </c>
+      <c r="O5">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="P5">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="Q5">
+        <v>0.01399555433222222</v>
+      </c>
+      <c r="R5">
+        <v>0.12595998899</v>
+      </c>
+      <c r="S5">
+        <v>0.007296662449723814</v>
+      </c>
+      <c r="T5">
+        <v>0.007296662449723814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.05065133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.151954</v>
+      </c>
+      <c r="I6">
+        <v>0.350277771374565</v>
+      </c>
+      <c r="J6">
+        <v>0.3502777713745649</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.180798333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.542395</v>
+      </c>
+      <c r="O6">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="P6">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="Q6">
+        <v>0.1104603433144444</v>
+      </c>
+      <c r="R6">
+        <v>0.99414308983</v>
+      </c>
+      <c r="S6">
+        <v>0.05758913295706036</v>
+      </c>
+      <c r="T6">
+        <v>0.05758913295706036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.05065133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.151954</v>
+      </c>
+      <c r="I7">
+        <v>0.350277771374565</v>
+      </c>
+      <c r="J7">
+        <v>0.3502777713745649</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.807288</v>
+      </c>
+      <c r="N7">
+        <v>32.421864</v>
+      </c>
+      <c r="O7">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="P7">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="Q7">
+        <v>0.5474035469173333</v>
+      </c>
+      <c r="R7">
+        <v>4.926631922256</v>
+      </c>
+      <c r="S7">
+        <v>0.2853919759677808</v>
+      </c>
+      <c r="T7">
+        <v>0.2853919759677807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.0409093269696558</v>
-      </c>
-      <c r="H4">
-        <v>0.0409093269696558</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>8.93403878525389</v>
-      </c>
-      <c r="N4">
-        <v>8.93403878525389</v>
-      </c>
-      <c r="O4">
-        <v>0.7917519170877764</v>
-      </c>
-      <c r="P4">
-        <v>0.7917519170877764</v>
-      </c>
-      <c r="Q4">
-        <v>0.3654855138255379</v>
-      </c>
-      <c r="R4">
-        <v>0.3654855138255379</v>
-      </c>
-      <c r="S4">
-        <v>0.7917519170877764</v>
-      </c>
-      <c r="T4">
-        <v>0.7917519170877764</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.06388466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.191654</v>
+      </c>
+      <c r="I8">
+        <v>0.4417924897996819</v>
+      </c>
+      <c r="J8">
+        <v>0.4417924897996818</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2763116666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.828935</v>
+      </c>
+      <c r="O8">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="P8">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="Q8">
+        <v>0.01765207872111111</v>
+      </c>
+      <c r="R8">
+        <v>0.15886870849</v>
+      </c>
+      <c r="S8">
+        <v>0.00920301239282525</v>
+      </c>
+      <c r="T8">
+        <v>0.009203012392825248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.06388466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.191654</v>
+      </c>
+      <c r="I9">
+        <v>0.4417924897996819</v>
+      </c>
+      <c r="J9">
+        <v>0.4417924897996818</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.180798333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.542395</v>
+      </c>
+      <c r="O9">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="P9">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="Q9">
+        <v>0.1393195745922222</v>
+      </c>
+      <c r="R9">
+        <v>1.25387617133</v>
+      </c>
+      <c r="S9">
+        <v>0.0726350585555658</v>
+      </c>
+      <c r="T9">
+        <v>0.07263505855556579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.06388466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.191654</v>
+      </c>
+      <c r="I10">
+        <v>0.4417924897996819</v>
+      </c>
+      <c r="J10">
+        <v>0.4417924897996818</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.807288</v>
+      </c>
+      <c r="N10">
+        <v>32.421864</v>
+      </c>
+      <c r="O10">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="P10">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="Q10">
+        <v>0.6904199914506666</v>
+      </c>
+      <c r="R10">
+        <v>6.213779923055999</v>
+      </c>
+      <c r="S10">
+        <v>0.3599544188512909</v>
+      </c>
+      <c r="T10">
+        <v>0.3599544188512908</v>
       </c>
     </row>
   </sheetData>
